--- a/day4/tedarik-urun.xlsx
+++ b/day4/tedarik-urun.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="tedarikciler" localSheetId="0">Sayfa1!$A$1:$C$5</definedName>
-    <definedName name="tedarikciler_1" localSheetId="0">Sayfa1!$A$11:$C$15</definedName>
-    <definedName name="urunler" localSheetId="0">Sayfa1!$F$1:$I$8</definedName>
-    <definedName name="urunler_1" localSheetId="0">Sayfa1!$F$11:$I$18</definedName>
-    <definedName name="urunler_2" localSheetId="0">Sayfa1!$F$21:$I$28</definedName>
-    <definedName name="urunler_3" localSheetId="0">Sayfa1!$F$31:$I$38</definedName>
-    <definedName name="urunler_4" localSheetId="0">Sayfa1!$F$41:$I$48</definedName>
+    <definedName name="tedarikciler" localSheetId="0">Sayfa1!$A$2:$C$6</definedName>
+    <definedName name="tedarikciler_1" localSheetId="0">Sayfa1!$A$12:$C$16</definedName>
+    <definedName name="urunler" localSheetId="0">Sayfa1!$F$2:$I$9</definedName>
+    <definedName name="urunler_1" localSheetId="0">Sayfa1!$F$12:$I$19</definedName>
+    <definedName name="urunler_2" localSheetId="0">Sayfa1!$F$22:$I$29</definedName>
+    <definedName name="urunler_3" localSheetId="0">Sayfa1!$F$32:$I$39</definedName>
+    <definedName name="urunler_4" localSheetId="0">Sayfa1!$F$42:$I$49</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="32">
   <si>
     <t>vergi_no</t>
   </si>
@@ -191,6 +191,12 @@
   </si>
   <si>
     <t>Fk</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>Child</t>
   </si>
 </sst>
 </file>
@@ -253,13 +259,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -278,31 +290,31 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="urunler_1" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="urunler" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="urunler_4" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tedarikciler_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="urunler_3" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tedarikciler" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="urunler_2" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="urunler_1" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tedarikciler_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -568,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="A2" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,149 +598,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="F1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>101</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="5">
-        <v>101</v>
-      </c>
-      <c r="G2" s="4">
-        <v>1001</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F3" s="5">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G3" s="4">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F4" s="5">
         <v>102</v>
       </c>
       <c r="G4" s="4">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="5">
+        <v>102</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1003</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>102</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="5">
-        <v>102</v>
-      </c>
-      <c r="G5" s="4">
+      <c r="F6" s="5">
+        <v>102</v>
+      </c>
+      <c r="G6" s="4">
         <v>1004</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F7" s="5">
         <v>103</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G7" s="4">
         <v>1005</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F7" s="5">
-        <v>104</v>
-      </c>
-      <c r="G7" s="4">
-        <v>1006</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -736,342 +747,342 @@
         <v>104</v>
       </c>
       <c r="G8" s="4">
+        <v>1006</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F9" s="5">
+        <v>104</v>
+      </c>
+      <c r="G9" s="4">
         <v>1007</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F9" s="2" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F10" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B12" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I12" s="4" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>103</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="5">
-        <v>101</v>
-      </c>
-      <c r="G12" s="4">
-        <v>1001</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F13" s="5">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G13" s="4">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F14" s="5">
         <v>102</v>
       </c>
       <c r="G14" s="4">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
+        <v>102</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="5">
+        <v>102</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1004</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>101</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F16" s="5">
         <v>104</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G16" s="4">
         <v>1006</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I16" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="5">
-        <v>102</v>
-      </c>
-      <c r="G16" s="4">
+      <c r="F17" s="5">
+        <v>102</v>
+      </c>
+      <c r="G17" s="4">
         <v>1002</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F17" s="5">
-        <v>103</v>
-      </c>
-      <c r="G17" s="4">
-        <v>1005</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>27</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="6:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F18" s="5">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G18" s="4">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>27</v>
       </c>
       <c r="I18" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F19" s="5">
+        <v>104</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1007</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F19" s="2" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F20" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F21" s="5" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F22" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G22" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H22" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="I22" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F22" s="5">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F23" s="5">
         <v>101</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G23" s="4">
         <v>1001</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="I23" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F23" s="5">
-        <v>102</v>
-      </c>
-      <c r="G23" s="4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F24" s="5">
+        <v>102</v>
+      </c>
+      <c r="G24" s="4">
         <v>1003</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H24" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="I24" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F24" s="5">
-        <v>102</v>
-      </c>
-      <c r="G24" s="4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F25" s="5">
+        <v>102</v>
+      </c>
+      <c r="G25" s="4">
         <v>1004</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H25" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="I25" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F25" s="5">
-        <v>102</v>
-      </c>
-      <c r="G25" s="4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F26" s="5">
+        <v>102</v>
+      </c>
+      <c r="G26" s="4">
         <v>1002</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H26" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="I26" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F26" s="5">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F27" s="5">
         <v>104</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G27" s="4">
         <v>1007</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H27" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="I27" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F27" s="5">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F28" s="5">
         <v>103</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G28" s="4">
         <v>1006</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F28" s="5">
-        <v>104</v>
-      </c>
-      <c r="G28" s="4">
-        <v>1008</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>27</v>
       </c>
       <c r="I28" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F29" s="5">
+        <v>104</v>
+      </c>
+      <c r="G29" s="4">
+        <v>1008</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I29" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F29" s="2" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F30" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F31" s="5" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F32" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="G32" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="H32" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="I32" s="4" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F32" s="5">
-        <v>101</v>
-      </c>
-      <c r="G32" s="4">
-        <v>1102</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="33" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F33" s="5">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G33" s="4">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="6:9" x14ac:dyDescent="0.25">
@@ -1079,13 +1090,13 @@
         <v>102</v>
       </c>
       <c r="G34" s="4">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="6:9" x14ac:dyDescent="0.25">
@@ -1093,102 +1104,102 @@
         <v>102</v>
       </c>
       <c r="G35" s="4">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F36" s="5">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G36" s="4">
-        <v>1111</v>
+        <v>1104</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F37" s="5">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G37" s="4">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F38" s="5">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G38" s="4">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>27</v>
       </c>
       <c r="I38" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F39" s="5">
+        <v>104</v>
+      </c>
+      <c r="G39" s="4">
+        <v>1112</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I39" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F39" s="2" t="s">
+    <row r="40" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F40" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F41" s="5" t="s">
+    <row r="42" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F42" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="G42" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H41" s="4" t="s">
+      <c r="H42" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I41" s="4" t="s">
+      <c r="I42" s="4" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F42" s="5">
-        <v>101</v>
-      </c>
-      <c r="G42" s="4">
-        <v>1001</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="43" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F43" s="5">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G43" s="4">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="6:9" x14ac:dyDescent="0.25">
@@ -1196,13 +1207,13 @@
         <v>102</v>
       </c>
       <c r="G44" s="4">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="6:9" x14ac:dyDescent="0.25">
@@ -1210,41 +1221,41 @@
         <v>102</v>
       </c>
       <c r="G45" s="4">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F46" s="5">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G46" s="4">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F47" s="5">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G47" s="4">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="H47" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="6:9" x14ac:dyDescent="0.25">
@@ -1252,21 +1263,39 @@
         <v>104</v>
       </c>
       <c r="G48" s="4">
+        <v>1007</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F49" s="5">
+        <v>104</v>
+      </c>
+      <c r="G49" s="4">
         <v>1006</v>
       </c>
-      <c r="H48" s="4" t="s">
+      <c r="H49" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I48" s="4" t="s">
+      <c r="I49" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F49" s="2" t="s">
+    <row r="50" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F50" s="2" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="F1:I1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>